--- a/Data/Coral_Growth_Data_Chapter5.xlsx
+++ b/Data/Coral_Growth_Data_Chapter5.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardobertini/PycharmProjects/ThesisChapter5/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426FFEC9-7D3A-844C-A910-4E493CD1FF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E628A-7890-324A-B0B1-1F9F7E17F389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1240" windowWidth="27640" windowHeight="16760" activeTab="1" xr2:uid="{82B52331-D55A-A841-8E35-75E1310935DA}"/>
+    <workbookView xWindow="1080" yWindow="1240" windowWidth="27640" windowHeight="16760" activeTab="2" xr2:uid="{82B52331-D55A-A841-8E35-75E1310935DA}"/>
   </bookViews>
   <sheets>
     <sheet name="DataArrangedForPlot" sheetId="2" r:id="rId1"/>
     <sheet name="CalciRates" sheetId="1" r:id="rId2"/>
+    <sheet name="Vol_Area_Change_hemisphere" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CalciRates!$A$1:$AH$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataArrangedForPlot!$A$1:$N$177</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="131">
   <si>
     <t>CoralColony</t>
   </si>
@@ -426,6 +427,18 @@
   <si>
     <t>8-8.5</t>
   </si>
+  <si>
+    <t>Radius (cm)</t>
+  </si>
+  <si>
+    <t>Volume (cm³)</t>
+  </si>
+  <si>
+    <t>Surface Area (cm²)_with base</t>
+  </si>
+  <si>
+    <t>Surface Area (cm²)_without base</t>
+  </si>
 </sst>
 </file>
 
@@ -434,7 +447,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +505,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -534,11 +555,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -609,27 +631,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
     <cellStyle name="Per cent 2" xfId="1" xr:uid="{2E6ED2E3-AED4-BA48-A412-EA2705F8CDAA}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -643,6 +651,3142 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1224582239720035"/>
+          <c:y val="8.7962962962962965E-2"/>
+          <c:w val="0.76809733158355209"/>
+          <c:h val="0.6843055555555555"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Vol_Area_Change_hemisphere!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Surface Area (cm²)_with base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Vol_Area_Change_hemisphere!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>261.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>452.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>718.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1072.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1526.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2094.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2787.64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3619.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4601.3900000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5747.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7068.58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8578.64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10289.76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12214.51</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14365.46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16755.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Vol_Area_Change_hemisphere!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>9.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>235.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>339.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>461.81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>603.19000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>763.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>942.48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1140.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1357.17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1592.79</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1847.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2120.58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2412.7399999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2723.76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3053.63</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3402.34</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3769.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B763-1A45-BBDB-C19EBBD671D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1340423551"/>
+        <c:axId val="1584077503"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1340423551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Volume</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1584077503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1584077503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Surface area</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1340423551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Vol_Area_Change_hemisphere!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Vol_Area_Change_hemisphere!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.0191387559808618</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3741050119331737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3702917771883287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95314831393613875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72799847211611901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58796613541413389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49270581029538674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42382475543909059</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37174894060164676</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33099694423223824</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29827022140592052</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27141479535023816</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24897476632061188</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22995569877954125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.21362989454741954</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.19946285192058433</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.18705489729595248</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17609793597942103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.16635039880379754</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43E5-B543-9112-9DBB0740F92A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2131227951"/>
+        <c:axId val="1884634575"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2131227951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1884634575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1884634575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2131227951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Hemispherical model</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Volume rate of change</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Vol_Area_Change_hemisphere!$G$2:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>7.0191387559808618</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3741050119331737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3702917771883287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95314831393613875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72799847211611901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58796613541413389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49270581029538674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42382475543909059</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37174894060164676</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33099694423223824</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29827022140592052</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27141479535023816</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24897476632061188</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22995569877954125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.21362989454741954</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.19946285192058433</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.18705489729595248</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17609793597942103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.16635039880379754</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2ECE-9D47-BFCD-8937D0534AED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Area rate of change</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Vol_Area_Change_hemisphere!$H$2:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3.0021231422505315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2498673740053046</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77788257486441914</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56246684350132625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43998811645870473</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36110701759556707</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30614321907277886</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26562111440839509</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23456596062404222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20999915117562185</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19008242721851976</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17361126461681287</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15976368510600891</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14795968082457267</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13777362796970638</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12890738330694584</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.12110832085058876</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.11419523648903107</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.10803447039390535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2ECE-9D47-BFCD-8937D0534AED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="717617183"/>
+        <c:axId val="160737039"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="717617183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="160737039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="160737039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717617183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D80B2BC-EBA6-E14E-8B8A-C9406E834338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>543983</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16094E2B-0B3D-5142-8807-2C1D2FD6E4E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>423549</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>390666</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17781</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD4B507C-4F22-9F4B-BDAF-A7916FCD66E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1521,8 +4665,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="A2" t="str">
@@ -3989,17 +7133,360 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="D1" t="str">
+            <v>Surface Area (cm²)_with base</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="C2">
+            <v>2.09</v>
+          </cell>
+          <cell r="D2">
+            <v>9.42</v>
+          </cell>
+          <cell r="G2">
+            <v>7.0191387559808618</v>
+          </cell>
+          <cell r="H2">
+            <v>3.0021231422505315</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="C3">
+            <v>16.760000000000002</v>
+          </cell>
+          <cell r="D3">
+            <v>37.700000000000003</v>
+          </cell>
+          <cell r="G3">
+            <v>2.3741050119331737</v>
+          </cell>
+          <cell r="H3">
+            <v>1.2498673740053046</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="C4">
+            <v>56.55</v>
+          </cell>
+          <cell r="D4">
+            <v>84.82</v>
+          </cell>
+          <cell r="G4">
+            <v>1.3702917771883287</v>
+          </cell>
+          <cell r="H4">
+            <v>0.77788257486441914</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="C5">
+            <v>134.04</v>
+          </cell>
+          <cell r="D5">
+            <v>150.80000000000001</v>
+          </cell>
+          <cell r="G5">
+            <v>0.95314831393613875</v>
+          </cell>
+          <cell r="H5">
+            <v>0.56246684350132625</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="C6">
+            <v>261.8</v>
+          </cell>
+          <cell r="D6">
+            <v>235.62</v>
+          </cell>
+          <cell r="G6">
+            <v>0.72799847211611901</v>
+          </cell>
+          <cell r="H6">
+            <v>0.43998811645870473</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+          <cell r="C7">
+            <v>452.39</v>
+          </cell>
+          <cell r="D7">
+            <v>339.29</v>
+          </cell>
+          <cell r="G7">
+            <v>0.58796613541413389</v>
+          </cell>
+          <cell r="H7">
+            <v>0.36110701759556707</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>7</v>
+          </cell>
+          <cell r="C8">
+            <v>718.38</v>
+          </cell>
+          <cell r="D8">
+            <v>461.81</v>
+          </cell>
+          <cell r="G8">
+            <v>0.49270581029538674</v>
+          </cell>
+          <cell r="H8">
+            <v>0.30614321907277886</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>8</v>
+          </cell>
+          <cell r="C9">
+            <v>1072.33</v>
+          </cell>
+          <cell r="D9">
+            <v>603.19000000000005</v>
+          </cell>
+          <cell r="G9">
+            <v>0.42382475543909059</v>
+          </cell>
+          <cell r="H9">
+            <v>0.26562111440839509</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>9</v>
+          </cell>
+          <cell r="C10">
+            <v>1526.81</v>
+          </cell>
+          <cell r="D10">
+            <v>763.41</v>
+          </cell>
+          <cell r="G10">
+            <v>0.37174894060164676</v>
+          </cell>
+          <cell r="H10">
+            <v>0.23456596062404222</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>10</v>
+          </cell>
+          <cell r="C11">
+            <v>2094.4</v>
+          </cell>
+          <cell r="D11">
+            <v>942.48</v>
+          </cell>
+          <cell r="G11">
+            <v>0.33099694423223824</v>
+          </cell>
+          <cell r="H11">
+            <v>0.20999915117562185</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>11</v>
+          </cell>
+          <cell r="C12">
+            <v>2787.64</v>
+          </cell>
+          <cell r="D12">
+            <v>1140.4000000000001</v>
+          </cell>
+          <cell r="G12">
+            <v>0.29827022140592052</v>
+          </cell>
+          <cell r="H12">
+            <v>0.19008242721851976</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>12</v>
+          </cell>
+          <cell r="C13">
+            <v>3619.11</v>
+          </cell>
+          <cell r="D13">
+            <v>1357.17</v>
+          </cell>
+          <cell r="G13">
+            <v>0.27141479535023816</v>
+          </cell>
+          <cell r="H13">
+            <v>0.17361126461681287</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>13</v>
+          </cell>
+          <cell r="C14">
+            <v>4601.3900000000003</v>
+          </cell>
+          <cell r="D14">
+            <v>1592.79</v>
+          </cell>
+          <cell r="G14">
+            <v>0.24897476632061188</v>
+          </cell>
+          <cell r="H14">
+            <v>0.15976368510600891</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>14</v>
+          </cell>
+          <cell r="C15">
+            <v>5747.02</v>
+          </cell>
+          <cell r="D15">
+            <v>1847.26</v>
+          </cell>
+          <cell r="G15">
+            <v>0.22995569877954125</v>
+          </cell>
+          <cell r="H15">
+            <v>0.14795968082457267</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>15</v>
+          </cell>
+          <cell r="C16">
+            <v>7068.58</v>
+          </cell>
+          <cell r="D16">
+            <v>2120.58</v>
+          </cell>
+          <cell r="G16">
+            <v>0.21362989454741954</v>
+          </cell>
+          <cell r="H16">
+            <v>0.13777362796970638</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>16</v>
+          </cell>
+          <cell r="C17">
+            <v>8578.64</v>
+          </cell>
+          <cell r="D17">
+            <v>2412.7399999999998</v>
+          </cell>
+          <cell r="G17">
+            <v>0.19946285192058433</v>
+          </cell>
+          <cell r="H17">
+            <v>0.12890738330694584</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>17</v>
+          </cell>
+          <cell r="C18">
+            <v>10289.76</v>
+          </cell>
+          <cell r="D18">
+            <v>2723.76</v>
+          </cell>
+          <cell r="G18">
+            <v>0.18705489729595248</v>
+          </cell>
+          <cell r="H18">
+            <v>0.12110832085058876</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>18</v>
+          </cell>
+          <cell r="C19">
+            <v>12214.51</v>
+          </cell>
+          <cell r="D19">
+            <v>3053.63</v>
+          </cell>
+          <cell r="G19">
+            <v>0.17609793597942103</v>
+          </cell>
+          <cell r="H19">
+            <v>0.11419523648903107</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>19</v>
+          </cell>
+          <cell r="C20">
+            <v>14365.46</v>
+          </cell>
+          <cell r="D20">
+            <v>3402.34</v>
+          </cell>
+          <cell r="G20">
+            <v>0.16635039880379754</v>
+          </cell>
+          <cell r="H20">
+            <v>0.10803447039390535</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>20</v>
+          </cell>
+          <cell r="C21">
+            <v>16755.16</v>
+          </cell>
+          <cell r="D21">
+            <v>3769.91</v>
+          </cell>
+          <cell r="G21">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4331,7 +7818,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="25.83203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
@@ -4350,7 +7837,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4394,7 +7881,7 @@
       <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="9">
         <v>1820</v>
       </c>
       <c r="C2" s="6" t="str">
@@ -4441,7 +7928,7 @@
       <c r="A3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="15">
         <v>1820</v>
       </c>
       <c r="C3" s="16" t="str">
@@ -4488,7 +7975,7 @@
       <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="24" t="str">
+      <c r="B4" s="9" t="str">
         <f>_xlfn.XLOOKUP(A4,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1821-1823</v>
       </c>
@@ -4536,7 +8023,7 @@
       <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="24" t="str">
+      <c r="B5" s="9" t="str">
         <f>_xlfn.XLOOKUP(A5,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1821-1823</v>
       </c>
@@ -4584,7 +8071,7 @@
       <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="24" t="str">
+      <c r="B6" s="9" t="str">
         <f>_xlfn.XLOOKUP(A6,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1821-1823</v>
       </c>
@@ -4632,7 +8119,7 @@
       <c r="A7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="24" t="str">
+      <c r="B7" s="9" t="str">
         <f>_xlfn.XLOOKUP(A7,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1821-1823</v>
       </c>
@@ -4680,7 +8167,7 @@
       <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="24" t="str">
+      <c r="B8" s="9" t="str">
         <f>_xlfn.XLOOKUP(A8,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1821-1823</v>
       </c>
@@ -4728,7 +8215,7 @@
       <c r="A9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="25" t="str">
+      <c r="B9" s="15" t="str">
         <f>_xlfn.XLOOKUP(A9,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1821-1823</v>
       </c>
@@ -4776,7 +8263,7 @@
       <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="24" t="str">
+      <c r="B10" s="9" t="str">
         <f>_xlfn.XLOOKUP(A10,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1821-1823</v>
       </c>
@@ -4824,7 +8311,7 @@
       <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="24" t="str">
+      <c r="B11" s="9" t="str">
         <f>_xlfn.XLOOKUP(A11,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1821-1823</v>
       </c>
@@ -4872,7 +8359,7 @@
       <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="24" t="str">
+      <c r="B12" s="9" t="str">
         <f>_xlfn.XLOOKUP(A12,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1821-1823</v>
       </c>
@@ -4920,7 +8407,7 @@
       <c r="A13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="25" t="str">
+      <c r="B13" s="15" t="str">
         <f>_xlfn.XLOOKUP(A13,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1821-1823</v>
       </c>
@@ -4968,7 +8455,7 @@
       <c r="A14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="24" t="str">
+      <c r="B14" s="9" t="str">
         <f>_xlfn.XLOOKUP(A14,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1821-1823</v>
       </c>
@@ -5016,7 +8503,7 @@
       <c r="A15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="25" t="str">
+      <c r="B15" s="15" t="str">
         <f>_xlfn.XLOOKUP(A15,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1821-1823</v>
       </c>
@@ -5064,7 +8551,7 @@
       <c r="A16" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="9">
         <v>1845</v>
       </c>
       <c r="C16" s="6" t="str">
@@ -5111,7 +8598,7 @@
       <c r="A17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="9">
         <v>1845</v>
       </c>
       <c r="C17" s="6" t="str">
@@ -5158,7 +8645,7 @@
       <c r="A18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="9">
         <v>1845</v>
       </c>
       <c r="C18" s="6" t="str">
@@ -5205,7 +8692,7 @@
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="15">
         <v>1845</v>
       </c>
       <c r="C19" s="16" t="str">
@@ -5252,7 +8739,7 @@
       <c r="A20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="24" t="str">
+      <c r="B20" s="9" t="str">
         <f>_xlfn.XLOOKUP(A20,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -5300,7 +8787,7 @@
       <c r="A21" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="25" t="str">
+      <c r="B21" s="15" t="str">
         <f>_xlfn.XLOOKUP(A21,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -5348,7 +8835,7 @@
       <c r="A22" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="24" t="str">
+      <c r="B22" s="9" t="str">
         <f>_xlfn.XLOOKUP(A22,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -5396,7 +8883,7 @@
       <c r="A23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="25" t="str">
+      <c r="B23" s="15" t="str">
         <f>_xlfn.XLOOKUP(A23,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -5444,7 +8931,7 @@
       <c r="A24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="24" t="str">
+      <c r="B24" s="9" t="str">
         <f>_xlfn.XLOOKUP(A24,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -5492,7 +8979,7 @@
       <c r="A25" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="25" t="str">
+      <c r="B25" s="15" t="str">
         <f>_xlfn.XLOOKUP(A25,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -5540,7 +9027,7 @@
       <c r="A26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="24" t="str">
+      <c r="B26" s="9" t="str">
         <f>_xlfn.XLOOKUP(A26,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -5588,7 +9075,7 @@
       <c r="A27" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="25" t="str">
+      <c r="B27" s="15" t="str">
         <f>_xlfn.XLOOKUP(A27,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -5636,7 +9123,7 @@
       <c r="A28" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="24" t="str">
+      <c r="B28" s="9" t="str">
         <f>_xlfn.XLOOKUP(A28,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -5684,7 +9171,7 @@
       <c r="A29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="24" t="str">
+      <c r="B29" s="9" t="str">
         <f>_xlfn.XLOOKUP(A29,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -5732,7 +9219,7 @@
       <c r="A30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="24" t="str">
+      <c r="B30" s="9" t="str">
         <f>_xlfn.XLOOKUP(A30,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -5780,7 +9267,7 @@
       <c r="A31" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="25" t="str">
+      <c r="B31" s="15" t="str">
         <f>_xlfn.XLOOKUP(A31,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -5828,7 +9315,7 @@
       <c r="A32" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="24" t="str">
+      <c r="B32" s="9" t="str">
         <f>_xlfn.XLOOKUP(A32,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -5876,7 +9363,7 @@
       <c r="A33" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="25" t="str">
+      <c r="B33" s="15" t="str">
         <f>_xlfn.XLOOKUP(A33,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -5924,7 +9411,7 @@
       <c r="A34" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="24" t="str">
+      <c r="B34" s="9" t="str">
         <f>_xlfn.XLOOKUP(A34,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -5972,7 +9459,7 @@
       <c r="A35" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="25" t="str">
+      <c r="B35" s="15" t="str">
         <f>_xlfn.XLOOKUP(A35,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -6020,7 +9507,7 @@
       <c r="A36" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="24" t="str">
+      <c r="B36" s="9" t="str">
         <f>_xlfn.XLOOKUP(A36,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -6068,7 +9555,7 @@
       <c r="A37" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="25" t="str">
+      <c r="B37" s="15" t="str">
         <f>_xlfn.XLOOKUP(A37,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -6116,7 +9603,7 @@
       <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="9">
         <f>_xlfn.XLOOKUP(A38,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1927</v>
       </c>
@@ -6164,7 +9651,7 @@
       <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="9">
         <f>_xlfn.XLOOKUP(A39,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1927</v>
       </c>
@@ -6212,7 +9699,7 @@
       <c r="A40" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B40" s="9">
         <f>_xlfn.XLOOKUP(A40,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1927</v>
       </c>
@@ -6260,7 +9747,7 @@
       <c r="A41" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="15">
         <f>_xlfn.XLOOKUP(A41,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1927</v>
       </c>
@@ -6308,7 +9795,7 @@
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="9">
         <f>_xlfn.XLOOKUP(A42,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1927</v>
       </c>
@@ -6356,7 +9843,7 @@
       <c r="A43" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="9">
         <f>_xlfn.XLOOKUP(A43,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1927</v>
       </c>
@@ -6404,7 +9891,7 @@
       <c r="A44" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="24">
+      <c r="B44" s="9">
         <f>_xlfn.XLOOKUP(A44,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1927</v>
       </c>
@@ -6452,7 +9939,7 @@
       <c r="A45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="9">
         <f>_xlfn.XLOOKUP(A45,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1927</v>
       </c>
@@ -6500,7 +9987,7 @@
       <c r="A46" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="24">
+      <c r="B46" s="9">
         <f>_xlfn.XLOOKUP(A46,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1927</v>
       </c>
@@ -6548,7 +10035,7 @@
       <c r="A47" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="25">
+      <c r="B47" s="15">
         <f>_xlfn.XLOOKUP(A47,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1927</v>
       </c>
@@ -6596,7 +10083,7 @@
       <c r="A48" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="24">
+      <c r="B48" s="9">
         <f>_xlfn.XLOOKUP(A48,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1928</v>
       </c>
@@ -6644,7 +10131,7 @@
       <c r="A49" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="25">
+      <c r="B49" s="15">
         <f>_xlfn.XLOOKUP(A49,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1928</v>
       </c>
@@ -6692,7 +10179,7 @@
       <c r="A50" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="24">
+      <c r="B50" s="9">
         <f>_xlfn.XLOOKUP(A50,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1931</v>
       </c>
@@ -6740,7 +10227,7 @@
       <c r="A51" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="25">
+      <c r="B51" s="15">
         <f>_xlfn.XLOOKUP(A51,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1931</v>
       </c>
@@ -6788,7 +10275,7 @@
       <c r="A52" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="24">
+      <c r="B52" s="9">
         <f>_xlfn.XLOOKUP(A52,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1931</v>
       </c>
@@ -6836,7 +10323,7 @@
       <c r="A53" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="25">
+      <c r="B53" s="15">
         <f>_xlfn.XLOOKUP(A53,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1931</v>
       </c>
@@ -6884,7 +10371,7 @@
       <c r="A54" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="24">
+      <c r="B54" s="9">
         <f>_xlfn.XLOOKUP(A54,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1931</v>
       </c>
@@ -6932,7 +10419,7 @@
       <c r="A55" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="24">
+      <c r="B55" s="9">
         <f>_xlfn.XLOOKUP(A55,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1931</v>
       </c>
@@ -6980,7 +10467,7 @@
       <c r="A56" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="24">
+      <c r="B56" s="9">
         <f>_xlfn.XLOOKUP(A56,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1931</v>
       </c>
@@ -7028,7 +10515,7 @@
       <c r="A57" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="25">
+      <c r="B57" s="15">
         <f>_xlfn.XLOOKUP(A57,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1931</v>
       </c>
@@ -7076,7 +10563,7 @@
       <c r="A58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="24">
+      <c r="B58" s="9">
         <f>_xlfn.XLOOKUP(A58,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1931</v>
       </c>
@@ -7124,7 +10611,7 @@
       <c r="A59" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="25">
+      <c r="B59" s="15">
         <f>_xlfn.XLOOKUP(A59,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1931</v>
       </c>
@@ -7172,7 +10659,7 @@
       <c r="A60" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="24">
+      <c r="B60" s="9">
         <f>_xlfn.XLOOKUP(A60,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1927</v>
       </c>
@@ -7220,7 +10707,7 @@
       <c r="A61" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="25">
+      <c r="B61" s="15">
         <f>_xlfn.XLOOKUP(A61,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1927</v>
       </c>
@@ -7268,7 +10755,7 @@
       <c r="A62" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="24">
+      <c r="B62" s="9">
         <f>_xlfn.XLOOKUP(A62,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1927</v>
       </c>
@@ -7316,7 +10803,7 @@
       <c r="A63" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="25">
+      <c r="B63" s="15">
         <f>_xlfn.XLOOKUP(A63,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1927</v>
       </c>
@@ -7364,7 +10851,7 @@
       <c r="A64" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="27" t="str">
+      <c r="B64" s="5" t="str">
         <f>_xlfn.XLOOKUP(A64,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -7412,7 +10899,7 @@
       <c r="A65" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="27" t="str">
+      <c r="B65" s="5" t="str">
         <f>_xlfn.XLOOKUP(A65,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -7460,7 +10947,7 @@
       <c r="A66" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="27" t="str">
+      <c r="B66" s="5" t="str">
         <f>_xlfn.XLOOKUP(A66,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -7508,7 +10995,7 @@
       <c r="A67" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B67" s="28" t="str">
+      <c r="B67" s="20" t="str">
         <f>_xlfn.XLOOKUP(A67,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1920-1922</v>
       </c>
@@ -7556,7 +11043,7 @@
       <c r="A68" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="27">
+      <c r="B68" s="5">
         <f>_xlfn.XLOOKUP(A68,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1899</v>
       </c>
@@ -7604,7 +11091,7 @@
       <c r="A69" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="27">
+      <c r="B69" s="5">
         <f>_xlfn.XLOOKUP(A69,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1899</v>
       </c>
@@ -7652,7 +11139,7 @@
       <c r="A70" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="27">
+      <c r="B70" s="5">
         <f>_xlfn.XLOOKUP(A70,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1899</v>
       </c>
@@ -7700,7 +11187,7 @@
       <c r="A71" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B71" s="27">
+      <c r="B71" s="5">
         <f>_xlfn.XLOOKUP(A71,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1899</v>
       </c>
@@ -7748,7 +11235,7 @@
       <c r="A72" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B72" s="27">
+      <c r="B72" s="5">
         <f>_xlfn.XLOOKUP(A72,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1899</v>
       </c>
@@ -7796,7 +11283,7 @@
       <c r="A73" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B73" s="28">
+      <c r="B73" s="20">
         <f>_xlfn.XLOOKUP(A73,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1899</v>
       </c>
@@ -7844,7 +11331,7 @@
       <c r="A74" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="27">
+      <c r="B74" s="5">
         <f>_xlfn.XLOOKUP(A74,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1899</v>
       </c>
@@ -7892,7 +11379,7 @@
       <c r="A75" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B75" s="27">
+      <c r="B75" s="5">
         <f>_xlfn.XLOOKUP(A75,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1899</v>
       </c>
@@ -7940,7 +11427,7 @@
       <c r="A76" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B76" s="27">
+      <c r="B76" s="5">
         <f>_xlfn.XLOOKUP(A76,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1899</v>
       </c>
@@ -7988,7 +11475,7 @@
       <c r="A77" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B77" s="27">
+      <c r="B77" s="5">
         <f>_xlfn.XLOOKUP(A77,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1899</v>
       </c>
@@ -8036,7 +11523,7 @@
       <c r="A78" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B78" s="27">
+      <c r="B78" s="5">
         <f>_xlfn.XLOOKUP(A78,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1899</v>
       </c>
@@ -8084,7 +11571,7 @@
       <c r="A79" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B79" s="28">
+      <c r="B79" s="20">
         <f>_xlfn.XLOOKUP(A79,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1899</v>
       </c>
@@ -8132,7 +11619,7 @@
       <c r="A80" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B80" s="27">
+      <c r="B80" s="5">
         <f>_xlfn.XLOOKUP(A80,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1899</v>
       </c>
@@ -8180,7 +11667,7 @@
       <c r="A81" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B81" s="27">
+      <c r="B81" s="5">
         <f>_xlfn.XLOOKUP(A81,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1899</v>
       </c>
@@ -8228,7 +11715,7 @@
       <c r="A82" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B82" s="27">
+      <c r="B82" s="5">
         <f>_xlfn.XLOOKUP(A82,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1899</v>
       </c>
@@ -8276,7 +11763,7 @@
       <c r="A83" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B83" s="27">
+      <c r="B83" s="5">
         <f>_xlfn.XLOOKUP(A83,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1899</v>
       </c>
@@ -8324,7 +11811,7 @@
       <c r="A84" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B84" s="27">
+      <c r="B84" s="5">
         <f>_xlfn.XLOOKUP(A84,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1899</v>
       </c>
@@ -8372,7 +11859,7 @@
       <c r="A85" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B85" s="28">
+      <c r="B85" s="20">
         <f>_xlfn.XLOOKUP(A85,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1899</v>
       </c>
@@ -8420,7 +11907,7 @@
       <c r="A86" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B86" s="27">
+      <c r="B86" s="5">
         <f>_xlfn.XLOOKUP(A86,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1900</v>
       </c>
@@ -8468,7 +11955,7 @@
       <c r="A87" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B87" s="27">
+      <c r="B87" s="5">
         <f>_xlfn.XLOOKUP(A87,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1900</v>
       </c>
@@ -8516,7 +12003,7 @@
       <c r="A88" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B88" s="27">
+      <c r="B88" s="5">
         <f>_xlfn.XLOOKUP(A88,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1900</v>
       </c>
@@ -8564,7 +12051,7 @@
       <c r="A89" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B89" s="27">
+      <c r="B89" s="5">
         <f>_xlfn.XLOOKUP(A89,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1900</v>
       </c>
@@ -8612,7 +12099,7 @@
       <c r="A90" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B90" s="27">
+      <c r="B90" s="5">
         <f>_xlfn.XLOOKUP(A90,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1900</v>
       </c>
@@ -8660,7 +12147,7 @@
       <c r="A91" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="27">
+      <c r="B91" s="5">
         <f>_xlfn.XLOOKUP(A91,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1900</v>
       </c>
@@ -8708,7 +12195,7 @@
       <c r="A92" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B92" s="27">
+      <c r="B92" s="5">
         <f>_xlfn.XLOOKUP(A92,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1900</v>
       </c>
@@ -8756,7 +12243,7 @@
       <c r="A93" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B93" s="27">
+      <c r="B93" s="5">
         <f>_xlfn.XLOOKUP(A93,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1900</v>
       </c>
@@ -8804,7 +12291,7 @@
       <c r="A94" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B94" s="27">
+      <c r="B94" s="5">
         <f>_xlfn.XLOOKUP(A94,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1900</v>
       </c>
@@ -8852,7 +12339,7 @@
       <c r="A95" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B95" s="28">
+      <c r="B95" s="20">
         <f>_xlfn.XLOOKUP(A95,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1900</v>
       </c>
@@ -8900,7 +12387,7 @@
       <c r="A96" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B96" s="27">
+      <c r="B96" s="5">
         <f>_xlfn.XLOOKUP(A96,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1930</v>
       </c>
@@ -8948,7 +12435,7 @@
       <c r="A97" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B97" s="28">
+      <c r="B97" s="20">
         <f>_xlfn.XLOOKUP(A97,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1930</v>
       </c>
@@ -8996,7 +12483,7 @@
       <c r="A98" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B98" s="27">
+      <c r="B98" s="5">
         <f>_xlfn.XLOOKUP(A98,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1930</v>
       </c>
@@ -9044,7 +12531,7 @@
       <c r="A99" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B99" s="28">
+      <c r="B99" s="20">
         <f>_xlfn.XLOOKUP(A99,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1930</v>
       </c>
@@ -9092,7 +12579,7 @@
       <c r="A100" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B100" s="27">
+      <c r="B100" s="5">
         <f>_xlfn.XLOOKUP(A100,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1979</v>
       </c>
@@ -9140,7 +12627,7 @@
       <c r="A101" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B101" s="28">
+      <c r="B101" s="20">
         <f>_xlfn.XLOOKUP(A101,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1979</v>
       </c>
@@ -9188,7 +12675,7 @@
       <c r="A102" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B102" s="27">
+      <c r="B102" s="5">
         <f>_xlfn.XLOOKUP(A102,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1979</v>
       </c>
@@ -9236,7 +12723,7 @@
       <c r="A103" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B103" s="28">
+      <c r="B103" s="20">
         <f>_xlfn.XLOOKUP(A103,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1979</v>
       </c>
@@ -9284,7 +12771,7 @@
       <c r="A104" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B104" s="27">
+      <c r="B104" s="5">
         <f>_xlfn.XLOOKUP(A104,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1984</v>
       </c>
@@ -9332,7 +12819,7 @@
       <c r="A105" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B105" s="27">
+      <c r="B105" s="5">
         <f>_xlfn.XLOOKUP(A105,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1984</v>
       </c>
@@ -9380,7 +12867,7 @@
       <c r="A106" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B106" s="27">
+      <c r="B106" s="5">
         <f>_xlfn.XLOOKUP(A106,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1984</v>
       </c>
@@ -9428,7 +12915,7 @@
       <c r="A107" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B107" s="27">
+      <c r="B107" s="5">
         <f>_xlfn.XLOOKUP(A107,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1984</v>
       </c>
@@ -9476,7 +12963,7 @@
       <c r="A108" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B108" s="27">
+      <c r="B108" s="5">
         <f>_xlfn.XLOOKUP(A108,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1984</v>
       </c>
@@ -9524,7 +13011,7 @@
       <c r="A109" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B109" s="28">
+      <c r="B109" s="20">
         <f>_xlfn.XLOOKUP(A109,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1984</v>
       </c>
@@ -9572,7 +13059,7 @@
       <c r="A110" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B110" s="27">
+      <c r="B110" s="5">
         <f>_xlfn.XLOOKUP(A110,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1984</v>
       </c>
@@ -9620,7 +13107,7 @@
       <c r="A111" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B111" s="28">
+      <c r="B111" s="20">
         <f>_xlfn.XLOOKUP(A111,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1984</v>
       </c>
@@ -9668,7 +13155,7 @@
       <c r="A112" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B112" s="27">
+      <c r="B112" s="5">
         <f>_xlfn.XLOOKUP(A112,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1855</v>
       </c>
@@ -9716,7 +13203,7 @@
       <c r="A113" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B113" s="27">
+      <c r="B113" s="5">
         <f>_xlfn.XLOOKUP(A113,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1855</v>
       </c>
@@ -9764,7 +13251,7 @@
       <c r="A114" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B114" s="27">
+      <c r="B114" s="5">
         <f>_xlfn.XLOOKUP(A114,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1855</v>
       </c>
@@ -9812,7 +13299,7 @@
       <c r="A115" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B115" s="27">
+      <c r="B115" s="5">
         <f>_xlfn.XLOOKUP(A115,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1855</v>
       </c>
@@ -9860,7 +13347,7 @@
       <c r="A116" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B116" s="27">
+      <c r="B116" s="5">
         <f>_xlfn.XLOOKUP(A116,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1855</v>
       </c>
@@ -9908,7 +13395,7 @@
       <c r="A117" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B117" s="27">
+      <c r="B117" s="5">
         <f>_xlfn.XLOOKUP(A117,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1855</v>
       </c>
@@ -9956,7 +13443,7 @@
       <c r="A118" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B118" s="27">
+      <c r="B118" s="5">
         <f>_xlfn.XLOOKUP(A118,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1855</v>
       </c>
@@ -10004,7 +13491,7 @@
       <c r="A119" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B119" s="28">
+      <c r="B119" s="20">
         <f>_xlfn.XLOOKUP(A119,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1855</v>
       </c>
@@ -10052,7 +13539,7 @@
       <c r="A120" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B120" s="27">
+      <c r="B120" s="5">
         <f>_xlfn.XLOOKUP(A120,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1921</v>
       </c>
@@ -10100,7 +13587,7 @@
       <c r="A121" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B121" s="28">
+      <c r="B121" s="20">
         <f>_xlfn.XLOOKUP(A121,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1921</v>
       </c>
@@ -10148,7 +13635,7 @@
       <c r="A122" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B122" s="27">
+      <c r="B122" s="5">
         <f>_xlfn.XLOOKUP(A122,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1930</v>
       </c>
@@ -10196,7 +13683,7 @@
       <c r="A123" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B123" s="28">
+      <c r="B123" s="20">
         <f>_xlfn.XLOOKUP(A123,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1930</v>
       </c>
@@ -10244,7 +13731,7 @@
       <c r="A124" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B124" s="27">
+      <c r="B124" s="5">
         <f>_xlfn.XLOOKUP(A124,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1930</v>
       </c>
@@ -10292,7 +13779,7 @@
       <c r="A125" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B125" s="27">
+      <c r="B125" s="5">
         <f>_xlfn.XLOOKUP(A125,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1930</v>
       </c>
@@ -10340,7 +13827,7 @@
       <c r="A126" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B126" s="27">
+      <c r="B126" s="5">
         <f>_xlfn.XLOOKUP(A126,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1930</v>
       </c>
@@ -10388,7 +13875,7 @@
       <c r="A127" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B127" s="27">
+      <c r="B127" s="5">
         <f>_xlfn.XLOOKUP(A127,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1930</v>
       </c>
@@ -10436,7 +13923,7 @@
       <c r="A128" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B128" s="27">
+      <c r="B128" s="5">
         <f>_xlfn.XLOOKUP(A128,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1930</v>
       </c>
@@ -10484,7 +13971,7 @@
       <c r="A129" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B129" s="28">
+      <c r="B129" s="20">
         <f>_xlfn.XLOOKUP(A129,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1930</v>
       </c>
@@ -10532,7 +14019,7 @@
       <c r="A130" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B130" s="27">
+      <c r="B130" s="5">
         <f>_xlfn.XLOOKUP(A130,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1930</v>
       </c>
@@ -10580,7 +14067,7 @@
       <c r="A131" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B131" s="28">
+      <c r="B131" s="20">
         <f>_xlfn.XLOOKUP(A131,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1930</v>
       </c>
@@ -10628,7 +14115,7 @@
       <c r="A132" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B132" s="27">
+      <c r="B132" s="5">
         <f>_xlfn.XLOOKUP(A132,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1930</v>
       </c>
@@ -10676,7 +14163,7 @@
       <c r="A133" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B133" s="27">
+      <c r="B133" s="5">
         <f>_xlfn.XLOOKUP(A133,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1930</v>
       </c>
@@ -10724,7 +14211,7 @@
       <c r="A134" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B134" s="27">
+      <c r="B134" s="5">
         <f>_xlfn.XLOOKUP(A134,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1930</v>
       </c>
@@ -10772,7 +14259,7 @@
       <c r="A135" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B135" s="28">
+      <c r="B135" s="20">
         <f>_xlfn.XLOOKUP(A135,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1930</v>
       </c>
@@ -10820,7 +14307,7 @@
       <c r="A136" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B136" s="27">
+      <c r="B136" s="5">
         <f>_xlfn.XLOOKUP(A136,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1928</v>
       </c>
@@ -10868,7 +14355,7 @@
       <c r="A137" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B137" s="27">
+      <c r="B137" s="5">
         <f>_xlfn.XLOOKUP(A137,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1928</v>
       </c>
@@ -10916,7 +14403,7 @@
       <c r="A138" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B138" s="27">
+      <c r="B138" s="5">
         <f>_xlfn.XLOOKUP(A138,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1928</v>
       </c>
@@ -10964,7 +14451,7 @@
       <c r="A139" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B139" s="27">
+      <c r="B139" s="5">
         <f>_xlfn.XLOOKUP(A139,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1928</v>
       </c>
@@ -11012,7 +14499,7 @@
       <c r="A140" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B140" s="27">
+      <c r="B140" s="5">
         <f>_xlfn.XLOOKUP(A140,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1928</v>
       </c>
@@ -11060,7 +14547,7 @@
       <c r="A141" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B141" s="28">
+      <c r="B141" s="20">
         <f>_xlfn.XLOOKUP(A141,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1928</v>
       </c>
@@ -11108,7 +14595,7 @@
       <c r="A142" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B142" s="27">
+      <c r="B142" s="5">
         <f>_xlfn.XLOOKUP(A142,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1928</v>
       </c>
@@ -11156,7 +14643,7 @@
       <c r="A143" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B143" s="28">
+      <c r="B143" s="20">
         <f>_xlfn.XLOOKUP(A143,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1928</v>
       </c>
@@ -11204,7 +14691,7 @@
       <c r="A144" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B144" s="27">
+      <c r="B144" s="5">
         <f>_xlfn.XLOOKUP(A144,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1928</v>
       </c>
@@ -11252,7 +14739,7 @@
       <c r="A145" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B145" s="27">
+      <c r="B145" s="5">
         <f>_xlfn.XLOOKUP(A145,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1928</v>
       </c>
@@ -11300,7 +14787,7 @@
       <c r="A146" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B146" s="27">
+      <c r="B146" s="5">
         <f>_xlfn.XLOOKUP(A146,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1928</v>
       </c>
@@ -11348,7 +14835,7 @@
       <c r="A147" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B147" s="28">
+      <c r="B147" s="20">
         <f>_xlfn.XLOOKUP(A147,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1928</v>
       </c>
@@ -11396,7 +14883,7 @@
       <c r="A148" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B148" s="27">
+      <c r="B148" s="5">
         <f>_xlfn.XLOOKUP(A148,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1929</v>
       </c>
@@ -11444,7 +14931,7 @@
       <c r="A149" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B149" s="27">
+      <c r="B149" s="5">
         <f>_xlfn.XLOOKUP(A149,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1929</v>
       </c>
@@ -11492,7 +14979,7 @@
       <c r="A150" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B150" s="27">
+      <c r="B150" s="5">
         <f>_xlfn.XLOOKUP(A150,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1929</v>
       </c>
@@ -11540,7 +15027,7 @@
       <c r="A151" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B151" s="27">
+      <c r="B151" s="5">
         <f>_xlfn.XLOOKUP(A151,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1929</v>
       </c>
@@ -11588,7 +15075,7 @@
       <c r="A152" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B152" s="27">
+      <c r="B152" s="5">
         <f>_xlfn.XLOOKUP(A152,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1929</v>
       </c>
@@ -11636,7 +15123,7 @@
       <c r="A153" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B153" s="28">
+      <c r="B153" s="20">
         <f>_xlfn.XLOOKUP(A153,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1929</v>
       </c>
@@ -11684,7 +15171,7 @@
       <c r="A154" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B154" s="27">
+      <c r="B154" s="5">
         <f>_xlfn.XLOOKUP(A154,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1929</v>
       </c>
@@ -11732,7 +15219,7 @@
       <c r="A155" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B155" s="27">
+      <c r="B155" s="5">
         <f>_xlfn.XLOOKUP(A155,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1929</v>
       </c>
@@ -11780,7 +15267,7 @@
       <c r="A156" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B156" s="27">
+      <c r="B156" s="5">
         <f>_xlfn.XLOOKUP(A156,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1929</v>
       </c>
@@ -11828,7 +15315,7 @@
       <c r="A157" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B157" s="28">
+      <c r="B157" s="20">
         <f>_xlfn.XLOOKUP(A157,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1929</v>
       </c>
@@ -11876,7 +15363,7 @@
       <c r="A158" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B158" s="27">
+      <c r="B158" s="5">
         <f>_xlfn.XLOOKUP(A158,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1929</v>
       </c>
@@ -11924,7 +15411,7 @@
       <c r="A159" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B159" s="28">
+      <c r="B159" s="20">
         <f>_xlfn.XLOOKUP(A159,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1929</v>
       </c>
@@ -11972,7 +15459,7 @@
       <c r="A160" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B160" s="27">
+      <c r="B160" s="5">
         <f>_xlfn.XLOOKUP(A160,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1929</v>
       </c>
@@ -12020,7 +15507,7 @@
       <c r="A161" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B161" s="27">
+      <c r="B161" s="5">
         <f>_xlfn.XLOOKUP(A161,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1929</v>
       </c>
@@ -12068,7 +15555,7 @@
       <c r="A162" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B162" s="27">
+      <c r="B162" s="5">
         <f>_xlfn.XLOOKUP(A162,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1929</v>
       </c>
@@ -12116,7 +15603,7 @@
       <c r="A163" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B163" s="27">
+      <c r="B163" s="5">
         <f>_xlfn.XLOOKUP(A163,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1929</v>
       </c>
@@ -12164,7 +15651,7 @@
       <c r="A164" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B164" s="27">
+      <c r="B164" s="5">
         <f>_xlfn.XLOOKUP(A164,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1929</v>
       </c>
@@ -12212,7 +15699,7 @@
       <c r="A165" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B165" s="28">
+      <c r="B165" s="20">
         <f>_xlfn.XLOOKUP(A165,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1929</v>
       </c>
@@ -12260,7 +15747,7 @@
       <c r="A166" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B166" s="27">
+      <c r="B166" s="5">
         <f>_xlfn.XLOOKUP(A166,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1955</v>
       </c>
@@ -12308,7 +15795,7 @@
       <c r="A167" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B167" s="27">
+      <c r="B167" s="5">
         <f>_xlfn.XLOOKUP(A167,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1955</v>
       </c>
@@ -12356,7 +15843,7 @@
       <c r="A168" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B168" s="27">
+      <c r="B168" s="5">
         <f>_xlfn.XLOOKUP(A168,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1955</v>
       </c>
@@ -12404,7 +15891,7 @@
       <c r="A169" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B169" s="27">
+      <c r="B169" s="5">
         <f>_xlfn.XLOOKUP(A169,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1955</v>
       </c>
@@ -12452,7 +15939,7 @@
       <c r="A170" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B170" s="27">
+      <c r="B170" s="5">
         <f>_xlfn.XLOOKUP(A170,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1955</v>
       </c>
@@ -12500,7 +15987,7 @@
       <c r="A171" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B171" s="28">
+      <c r="B171" s="20">
         <f>_xlfn.XLOOKUP(A171,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1955</v>
       </c>
@@ -12548,7 +16035,7 @@
       <c r="A172" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B172" s="27">
+      <c r="B172" s="5">
         <f>_xlfn.XLOOKUP(A172,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1955</v>
       </c>
@@ -12596,7 +16083,7 @@
       <c r="A173" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B173" s="27">
+      <c r="B173" s="5">
         <f>_xlfn.XLOOKUP(A173,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1955</v>
       </c>
@@ -12644,7 +16131,7 @@
       <c r="A174" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B174" s="27">
+      <c r="B174" s="5">
         <f>_xlfn.XLOOKUP(A174,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1955</v>
       </c>
@@ -12692,7 +16179,7 @@
       <c r="A175" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B175" s="28">
+      <c r="B175" s="20">
         <f>_xlfn.XLOOKUP(A175,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1955</v>
       </c>
@@ -12740,7 +16227,7 @@
       <c r="A176" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B176" s="27">
+      <c r="B176" s="5">
         <f>_xlfn.XLOOKUP(A176,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1929</v>
       </c>
@@ -12788,7 +16275,7 @@
       <c r="A177" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="28">
+      <c r="B177" s="20">
         <f>_xlfn.XLOOKUP(A177,[1]Metadata!$A$2:$A$51,[1]Metadata!$C$2:$C$51)</f>
         <v>1929</v>
       </c>
@@ -12836,7 +16323,7 @@
       <c r="D178" s="12"/>
     </row>
     <row r="179" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="B179" s="29"/>
+      <c r="B179" s="6"/>
       <c r="D179" s="12"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
@@ -13495,7 +16982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D50A92-2C8C-8147-8AB7-B5D4D7302198}">
   <dimension ref="A1:AJ340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+    <sheetView zoomScale="69" workbookViewId="0">
       <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
@@ -13813,7 +17300,7 @@
         <v>1.610706299801782</v>
       </c>
       <c r="Y3" s="10">
-        <f t="shared" ref="Y2:Y65" si="2">D3/P3/F3</f>
+        <f t="shared" ref="Y3:Y65" si="2">D3/P3/F3</f>
         <v>1.3668166235487531</v>
       </c>
       <c r="Z3" s="10">
@@ -13893,11 +17380,11 @@
         <v>64.043000000000006</v>
       </c>
       <c r="S4" s="10">
-        <f t="shared" ref="S2:S32" si="5">(M4/F4)*O4</f>
+        <f t="shared" ref="S4:S32" si="5">(M4/F4)*O4</f>
         <v>0.9477850000000001</v>
       </c>
       <c r="T4" s="10">
-        <f t="shared" ref="T2:T32" si="6">(M4/G4)*O4</f>
+        <f t="shared" ref="T4:T32" si="6">(M4/G4)*O4</f>
         <v>0.86162272727272726</v>
       </c>
       <c r="U4" s="10">
@@ -24778,4 +28265,567 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCC44F2-0C67-A142-A139-DF451D705B03}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2.09</v>
+      </c>
+      <c r="D2">
+        <v>9.42</v>
+      </c>
+      <c r="E2">
+        <v>6.28</v>
+      </c>
+      <c r="G2" s="25">
+        <f>(C3/C2)-1</f>
+        <v>7.0191387559808618</v>
+      </c>
+      <c r="H2" s="25">
+        <f>(D3/D2)-1</f>
+        <v>3.0021231422505315</v>
+      </c>
+      <c r="I2" s="25">
+        <f>(E3-E2)/E2</f>
+        <v>3.0015923566878975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="D3">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="E3">
+        <v>25.13</v>
+      </c>
+      <c r="G3" s="25">
+        <f t="shared" ref="G3:H20" si="0">(C4/C3)-1</f>
+        <v>2.3741050119331737</v>
+      </c>
+      <c r="H3" s="25">
+        <f t="shared" si="0"/>
+        <v>1.2498673740053046</v>
+      </c>
+      <c r="I3" s="25">
+        <f>(E4-E3)/E3</f>
+        <v>1.2502984480700359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>56.55</v>
+      </c>
+      <c r="D4">
+        <v>84.82</v>
+      </c>
+      <c r="E4">
+        <v>56.55</v>
+      </c>
+      <c r="G4" s="25">
+        <f t="shared" si="0"/>
+        <v>1.3702917771883287</v>
+      </c>
+      <c r="H4" s="25">
+        <f t="shared" si="0"/>
+        <v>0.77788257486441914</v>
+      </c>
+      <c r="I4" s="25">
+        <f t="shared" ref="I4:I21" si="1">(E5-E4)/E4</f>
+        <v>0.77771883289124677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>134.04</v>
+      </c>
+      <c r="D5">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="E5">
+        <v>100.53</v>
+      </c>
+      <c r="G5" s="25">
+        <f t="shared" si="0"/>
+        <v>0.95314831393613875</v>
+      </c>
+      <c r="H5" s="25">
+        <f t="shared" si="0"/>
+        <v>0.56246684350132625</v>
+      </c>
+      <c r="I5" s="25">
+        <f t="shared" si="1"/>
+        <v>0.56251865114891086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>261.8</v>
+      </c>
+      <c r="D6">
+        <v>235.62</v>
+      </c>
+      <c r="E6">
+        <v>157.08000000000001</v>
+      </c>
+      <c r="G6" s="25">
+        <f t="shared" si="0"/>
+        <v>0.72799847211611901</v>
+      </c>
+      <c r="H6" s="25">
+        <f t="shared" si="0"/>
+        <v>0.43998811645870473</v>
+      </c>
+      <c r="I6" s="25">
+        <f t="shared" si="1"/>
+        <v>0.43996689584924864</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>452.39</v>
+      </c>
+      <c r="D7">
+        <v>339.29</v>
+      </c>
+      <c r="E7">
+        <v>226.19</v>
+      </c>
+      <c r="G7" s="25">
+        <f t="shared" si="0"/>
+        <v>0.58796613541413389</v>
+      </c>
+      <c r="H7" s="25">
+        <f t="shared" si="0"/>
+        <v>0.36110701759556707</v>
+      </c>
+      <c r="I7" s="25">
+        <f t="shared" si="1"/>
+        <v>0.36115654980326273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>718.38</v>
+      </c>
+      <c r="D8">
+        <v>461.81</v>
+      </c>
+      <c r="E8">
+        <v>307.88</v>
+      </c>
+      <c r="G8" s="25">
+        <f t="shared" si="0"/>
+        <v>0.49270581029538674</v>
+      </c>
+      <c r="H8" s="25">
+        <f t="shared" si="0"/>
+        <v>0.30614321907277886</v>
+      </c>
+      <c r="I8" s="25">
+        <f t="shared" si="1"/>
+        <v>0.30609328309731065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1072.33</v>
+      </c>
+      <c r="D9">
+        <v>603.19000000000005</v>
+      </c>
+      <c r="E9">
+        <v>402.12</v>
+      </c>
+      <c r="G9" s="25">
+        <f t="shared" si="0"/>
+        <v>0.42382475543909059</v>
+      </c>
+      <c r="H9" s="25">
+        <f t="shared" si="0"/>
+        <v>0.26562111440839509</v>
+      </c>
+      <c r="I9" s="25">
+        <f t="shared" si="1"/>
+        <v>0.26564209688650153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1526.81</v>
+      </c>
+      <c r="D10">
+        <v>763.41</v>
+      </c>
+      <c r="E10">
+        <v>508.94</v>
+      </c>
+      <c r="G10" s="25">
+        <f t="shared" si="0"/>
+        <v>0.37174894060164676</v>
+      </c>
+      <c r="H10" s="25">
+        <f t="shared" si="0"/>
+        <v>0.23456596062404222</v>
+      </c>
+      <c r="I10" s="25">
+        <f t="shared" si="1"/>
+        <v>0.23456596062404222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2094.4</v>
+      </c>
+      <c r="D11">
+        <v>942.48</v>
+      </c>
+      <c r="E11">
+        <v>628.32000000000005</v>
+      </c>
+      <c r="G11" s="25">
+        <f t="shared" si="0"/>
+        <v>0.33099694423223824</v>
+      </c>
+      <c r="H11" s="25">
+        <f t="shared" si="0"/>
+        <v>0.20999915117562185</v>
+      </c>
+      <c r="I11" s="25">
+        <f t="shared" si="1"/>
+        <v>0.21000445632798562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>2787.64</v>
+      </c>
+      <c r="D12">
+        <v>1140.4000000000001</v>
+      </c>
+      <c r="E12">
+        <v>760.27</v>
+      </c>
+      <c r="G12" s="25">
+        <f t="shared" si="0"/>
+        <v>0.29827022140592052</v>
+      </c>
+      <c r="H12" s="25">
+        <f t="shared" si="0"/>
+        <v>0.19008242721851976</v>
+      </c>
+      <c r="I12" s="25">
+        <f t="shared" si="1"/>
+        <v>0.19007720941244557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>3619.11</v>
+      </c>
+      <c r="D13">
+        <v>1357.17</v>
+      </c>
+      <c r="E13">
+        <v>904.78</v>
+      </c>
+      <c r="G13" s="25">
+        <f t="shared" si="0"/>
+        <v>0.27141479535023816</v>
+      </c>
+      <c r="H13" s="25">
+        <f t="shared" si="0"/>
+        <v>0.17361126461681287</v>
+      </c>
+      <c r="I13" s="25">
+        <f t="shared" si="1"/>
+        <v>0.17361126461681284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>4601.3900000000003</v>
+      </c>
+      <c r="D14">
+        <v>1592.79</v>
+      </c>
+      <c r="E14">
+        <v>1061.8599999999999</v>
+      </c>
+      <c r="G14" s="25">
+        <f t="shared" si="0"/>
+        <v>0.24897476632061188</v>
+      </c>
+      <c r="H14" s="25">
+        <f t="shared" si="0"/>
+        <v>0.15976368510600891</v>
+      </c>
+      <c r="I14" s="25">
+        <f t="shared" si="1"/>
+        <v>0.15975740681445777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>5747.02</v>
+      </c>
+      <c r="D15">
+        <v>1847.26</v>
+      </c>
+      <c r="E15">
+        <v>1231.5</v>
+      </c>
+      <c r="G15" s="25">
+        <f t="shared" si="0"/>
+        <v>0.22995569877954125</v>
+      </c>
+      <c r="H15" s="25">
+        <f t="shared" si="0"/>
+        <v>0.14795968082457267</v>
+      </c>
+      <c r="I15" s="25">
+        <f t="shared" si="1"/>
+        <v>0.14796589524969553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>7068.58</v>
+      </c>
+      <c r="D16">
+        <v>2120.58</v>
+      </c>
+      <c r="E16">
+        <v>1413.72</v>
+      </c>
+      <c r="G16" s="25">
+        <f t="shared" si="0"/>
+        <v>0.21362989454741954</v>
+      </c>
+      <c r="H16" s="25">
+        <f t="shared" si="0"/>
+        <v>0.13777362796970638</v>
+      </c>
+      <c r="I16" s="25">
+        <f t="shared" si="1"/>
+        <v>0.13777834366069658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>8578.64</v>
+      </c>
+      <c r="D17">
+        <v>2412.7399999999998</v>
+      </c>
+      <c r="E17">
+        <v>1608.5</v>
+      </c>
+      <c r="G17" s="25">
+        <f t="shared" si="0"/>
+        <v>0.19946285192058433</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" si="0"/>
+        <v>0.12890738330694584</v>
+      </c>
+      <c r="I17" s="25">
+        <f t="shared" si="1"/>
+        <v>0.12890270438296544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>10289.76</v>
+      </c>
+      <c r="D18">
+        <v>2723.76</v>
+      </c>
+      <c r="E18">
+        <v>1815.84</v>
+      </c>
+      <c r="G18" s="25">
+        <f t="shared" si="0"/>
+        <v>0.18705489729595248</v>
+      </c>
+      <c r="H18" s="25">
+        <f t="shared" si="0"/>
+        <v>0.12110832085058876</v>
+      </c>
+      <c r="I18" s="25">
+        <f t="shared" si="1"/>
+        <v>0.12110648515287696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>12214.51</v>
+      </c>
+      <c r="D19">
+        <v>3053.63</v>
+      </c>
+      <c r="E19">
+        <v>2035.75</v>
+      </c>
+      <c r="G19" s="25">
+        <f t="shared" si="0"/>
+        <v>0.17609793597942103</v>
+      </c>
+      <c r="H19" s="25">
+        <f t="shared" si="0"/>
+        <v>0.11419523648903107</v>
+      </c>
+      <c r="I19" s="25">
+        <f t="shared" si="1"/>
+        <v>0.11419869826845144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>14365.46</v>
+      </c>
+      <c r="D20">
+        <v>3402.34</v>
+      </c>
+      <c r="E20">
+        <v>2268.23</v>
+      </c>
+      <c r="G20" s="25">
+        <f t="shared" si="0"/>
+        <v>0.16635039880379754</v>
+      </c>
+      <c r="H20" s="25">
+        <f t="shared" si="0"/>
+        <v>0.10803447039390535</v>
+      </c>
+      <c r="I20" s="25">
+        <f t="shared" si="1"/>
+        <v>0.10803137247986314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>16755.16</v>
+      </c>
+      <c r="D21">
+        <v>3769.91</v>
+      </c>
+      <c r="E21">
+        <v>2513.27</v>
+      </c>
+      <c r="G21" s="26">
+        <f>C22/C21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="26">
+        <f t="shared" ref="H21" si="2">D22/D21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="25">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>